--- a/data/trans_dic/P55_6-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P55_6-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse disponer de un automóvil</t>
+          <t>Población que no puede permitirse disponer de un automóvil (tasa de respuesta: 99,14%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>95,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>84,35%</t>
+          <t>91,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>89,52%</t>
+          <t>83,6%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>84,76%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>89,18%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>87,98%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,82; 97,14</t>
+          <t>89,99; 97,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,7; 88,05</t>
+          <t>85,41; 95,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,76; 92,05</t>
+          <t>77,35; 88,78</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>78,36; 89,88</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>85,43; 92,48</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>83,61; 91,3</t>
         </is>
       </c>
     </row>
@@ -606,17 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>90,57%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>86,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>89,8%</t>
+          <t>91,6%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>79,31%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>92,45%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>82,99%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,19; 94,4</t>
+          <t>87,3; 96,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,89; 92,82</t>
+          <t>78,26; 92,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,45; 92,77</t>
+          <t>84,72; 95,61</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>64,07; 87,45</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>88,47; 95,27</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>74,68; 88,52</t>
         </is>
       </c>
     </row>
@@ -656,17 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,05%</t>
+          <t>91,5%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>82,37%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>91,35%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>88,72%</t>
         </is>
       </c>
     </row>
@@ -679,17 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,49; 97,53</t>
+          <t>76,47; 98,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,19; 95,92</t>
+          <t>73,53; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,92; 95,2</t>
+          <t>78,27; 97,53</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>66,14; 92,62</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>81,76; 96,78</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>78,12; 95,87</t>
         </is>
       </c>
     </row>
@@ -706,17 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>87,66%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>82,39%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>90,74%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>86,08%</t>
         </is>
       </c>
     </row>
@@ -729,28 +880,644 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,24; 94,96</t>
+          <t>90,78; 96,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,26; 89,4</t>
+          <t>85,2; 93,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>87,72; 91,61</t>
+          <t>83,4; 91,19</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>75,01; 86,7</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>88,15; 92,65</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>82,02; 89,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse disponer de un automóvil (tasa de respuesta: 99,14%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>357043</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>453818</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>329977</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>472949</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>687019</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>926767</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>338004; 367572</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>423165; 473911</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>305310; 350448</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>437239; 501539</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>658095; 712419</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>880770; 961751</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>298559</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>353880</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>298751</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>339185</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>597310</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>693066</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>279345; 308880</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>318912; 377443</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>276313; 311813</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>274006; 373965</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>571620; 615536</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>623713; 739311</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>78060</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>75538</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>88332</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>153598</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>198361</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>65451; 83939</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>85547; 116337</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>64616; 80514</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>70928; 99324</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>137480; 162735</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>174663; 214352</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>342.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>637.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>620.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>733662</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>917727</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>704266</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>900466</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1437928</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1818194</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>709165; 752807</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>868432; 951847</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>670065; 732621</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>819735; 947593</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1396852; 1468147</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1732305; 1880149</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>